--- a/website/static/templates/summary_list_of_filers.xlsx
+++ b/website/static/templates/summary_list_of_filers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\201-File-System\website\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30584280-335F-4D3F-8410-1493628E3C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BD3084-1E6C-440D-B080-6F19A359D342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91E4A76E-8A90-4C62-B3D6-B5D14CA0B995}"/>
   </bookViews>
@@ -903,13 +903,7 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,23 +911,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -941,10 +920,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,1325 +1265,1325 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C100207-718E-4881-A560-7861B641305E}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="16.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="55" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="55" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+      <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+      <c r="A12" s="8">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+      <c r="A13" s="8">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+      <c r="A14" s="8">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+      <c r="A15" s="8">
         <v>10</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="A16" s="8">
         <v>11</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+      <c r="A17" s="8">
         <v>12</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+      <c r="A18" s="8">
         <v>13</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+      <c r="A19" s="8">
         <v>14</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="A20" s="8">
         <v>15</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="A21" s="8">
         <v>16</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="A22" s="8">
         <v>17</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="8">
         <v>18</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="A24" s="8">
         <v>19</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+      <c r="A25" s="8">
         <v>20</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
+      <c r="A26" s="8">
         <v>21</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+      <c r="A27" s="8">
         <v>22</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+      <c r="A28" s="8">
         <v>23</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+      <c r="A29" s="8">
         <v>24</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+      <c r="A30" s="8">
         <v>25</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
+      <c r="A31" s="8">
         <v>26</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
+      <c r="A32" s="8">
         <v>27</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="16"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+      <c r="A33" s="8">
         <v>28</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
+      <c r="A34" s="8">
         <v>29</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="16"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+      <c r="A35" s="8">
         <v>30</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G35" s="16"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+      <c r="A36" s="8">
         <v>31</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="16"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+      <c r="A37" s="8">
         <v>32</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="16"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="A38" s="8">
         <v>33</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G38" s="16"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="A39" s="8">
         <v>34</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="16"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="A40" s="8">
         <v>35</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="16"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+      <c r="A41" s="8">
         <v>36</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="16"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="A42" s="8">
         <v>37</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G42" s="16"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="A43" s="8">
         <v>38</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="A44" s="8">
         <v>39</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="16"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="A45" s="8">
         <v>40</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="16"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="A46" s="8">
         <v>41</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G46" s="16"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="A47" s="8">
         <v>42</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="16"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+      <c r="A48" s="8">
         <v>43</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="16"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
+      <c r="A49" s="8">
         <v>44</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="16"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
+      <c r="A50" s="8">
         <v>45</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G50" s="16"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="15">
+      <c r="A51" s="8">
         <v>46</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G51" s="16"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+      <c r="A52" s="8">
         <v>47</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="16"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
+      <c r="A53" s="8">
         <v>48</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="16"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
+      <c r="A54" s="8">
         <v>49</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G54" s="16"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
+      <c r="A55" s="8">
         <v>50</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G55" s="16"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
+      <c r="A56" s="8">
         <v>51</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G56" s="16"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
+      <c r="A57" s="8">
         <v>52</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="16"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="15">
+      <c r="A58" s="8">
         <v>53</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="16"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
+      <c r="A59" s="8">
         <v>54</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G59" s="16"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="15">
+      <c r="A60" s="8">
         <v>55</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="16"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="15">
+      <c r="A61" s="8">
         <v>56</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G61" s="16"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="15">
+      <c r="A62" s="8">
         <v>57</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G62" s="16"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="15">
+      <c r="A63" s="8">
         <v>58</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="16"/>
+      <c r="G63" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2597,11 +2597,12 @@
     <mergeCell ref="G4:G5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.13" right="0.12" top="1.21" bottom="1.18" header="0.14000000000000001" footer="0.14000000000000001"/>
+  <pageMargins left="0.13" right="0.12" top="1.21" bottom="1.21" header="0.14000000000000001" footer="0.12"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;G</oddFooter>
+    <oddFooter>&amp;L&amp;G
+&amp;"-,Italic"&amp;9NIA-RO1-AFD-AS-INT-Form09Rev.03</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/website/static/templates/summary_list_of_filers.xlsx
+++ b/website/static/templates/summary_list_of_filers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\201-File-System\website\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43AA4FE-F779-4709-BE04-34281C144F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576641BB-AA51-4C92-A8E5-786DA986FECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91E4A76E-8A90-4C62-B3D6-B5D14CA0B995}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{91E4A76E-8A90-4C62-B3D6-B5D14CA0B995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -188,6 +188,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -205,6 +208,9 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -522,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C100207-718E-4881-A560-7861B641305E}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -539,15 +545,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -557,15 +563,15 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -575,15 +581,15 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -593,26 +599,26 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -622,9 +628,216 @@
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
